--- a/aegis_publication/ch_electricity_ags_high.xlsx
+++ b/aegis_publication/ch_electricity_ags_high.xlsx
@@ -16,52 +16,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1141 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1147 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1149 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1150 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1152 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1156 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1160 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_BAU_AGS 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1141 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1147 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1149 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1150 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1152 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1156 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1160 2025-05-12')</t>
-  </si>
-  <si>
-    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_BAU_AGS 2025-05-12')</t>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1141 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1147 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1149 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1150 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1152 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1156 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_AGS_1160 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-Base_2050_BAU_AGS 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1141 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1147 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1149 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1150 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1152 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1156 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_AGS_1160 2025-05-13')</t>
+  </si>
+  <si>
+    <t>('market for electricity, high voltage (SPS)', 'CH', 'ei_cutoff_3.10_remind_SSP2-PkBudg1150_2050_BAU_AGS 2025-05-13')</t>
   </si>
   <si>
     <t>('IPCC 2021', 'climate change', 'global warming potential (GWP100)')</t>
@@ -501,52 +501,52 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.02579648778998254</v>
+        <v>0.02579315202426106</v>
       </c>
       <c r="C2">
-        <v>0.02632931111499837</v>
+        <v>0.02543752253753767</v>
       </c>
       <c r="D2">
-        <v>0.02654385388729813</v>
+        <v>0.02473573876003102</v>
       </c>
       <c r="E2">
-        <v>0.0268328031917643</v>
+        <v>0.02442061962619976</v>
       </c>
       <c r="F2">
-        <v>0.02776778131673557</v>
+        <v>0.02378461258366118</v>
       </c>
       <c r="G2">
-        <v>0.02816354593939873</v>
+        <v>0.02273967047760971</v>
       </c>
       <c r="H2">
-        <v>0.0287523550309046</v>
+        <v>0.02206916611344611</v>
       </c>
       <c r="I2">
-        <v>0.1373374776333393</v>
+        <v>0.1372602358954528</v>
       </c>
       <c r="J2">
-        <v>0.01976914230692997</v>
+        <v>0.01976664118559354</v>
       </c>
       <c r="K2">
-        <v>0.0201522139238893</v>
+        <v>0.01949234456415187</v>
       </c>
       <c r="L2">
-        <v>0.02031778940091106</v>
+        <v>0.01897992344368393</v>
       </c>
       <c r="M2">
-        <v>0.02052870457841323</v>
+        <v>0.01874388856487163</v>
       </c>
       <c r="N2">
-        <v>0.0212611830145402</v>
+        <v>0.0183139313861894</v>
       </c>
       <c r="O2">
-        <v>0.0216411720913372</v>
+        <v>0.01762774400500301</v>
       </c>
       <c r="P2">
-        <v>0.02212754972590811</v>
+        <v>0.01718216943083977</v>
       </c>
       <c r="Q2">
-        <v>0.1304834522112307</v>
+        <v>0.1304255123742017</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -554,52 +554,52 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0002583606653955992</v>
+        <v>0.0002583475559064698</v>
       </c>
       <c r="C3">
-        <v>0.0002601941148629516</v>
+        <v>0.0002562341633581851</v>
       </c>
       <c r="D3">
-        <v>0.0002589280182998902</v>
+        <v>0.000250898888486256</v>
       </c>
       <c r="E3">
-        <v>0.0002588953090035811</v>
+        <v>0.0002481843195846893</v>
       </c>
       <c r="F3">
-        <v>0.0002585461486559461</v>
+        <v>0.0002408648115703171</v>
       </c>
       <c r="G3">
-        <v>0.0002530689084002052</v>
+        <v>0.000229005943563031</v>
       </c>
       <c r="H3">
-        <v>0.0002503595263468711</v>
+        <v>0.0002207221925370463</v>
       </c>
       <c r="I3">
-        <v>0.0001821766180234847</v>
+        <v>0.000181849820870683</v>
       </c>
       <c r="J3">
-        <v>0.0002509989924178171</v>
+        <v>0.000250987319591596</v>
       </c>
       <c r="K3">
-        <v>0.0002527382146832099</v>
+        <v>0.0002491387192581775</v>
       </c>
       <c r="L3">
-        <v>0.0002512570921750874</v>
+        <v>0.000243958790352933</v>
       </c>
       <c r="M3">
-        <v>0.0002510711813594112</v>
+        <v>0.0002413351834917238</v>
       </c>
       <c r="N3">
-        <v>0.0002503460940981413</v>
+        <v>0.0002342746766145288</v>
       </c>
       <c r="O3">
-        <v>0.0002445332497442943</v>
+        <v>0.0002226628342581117</v>
       </c>
       <c r="P3">
-        <v>0.0002416871236614255</v>
+        <v>0.0002147511418657385</v>
       </c>
       <c r="Q3">
-        <v>0.0001841096075993094</v>
+        <v>0.0001838125729205798</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,52 +607,52 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.2927836130447758</v>
+        <v>0.2927592642037034</v>
       </c>
       <c r="C4">
-        <v>0.3109808131398074</v>
+        <v>0.2941403651978653</v>
       </c>
       <c r="D4">
-        <v>0.3251507916798552</v>
+        <v>0.2909607241403355</v>
       </c>
       <c r="E4">
-        <v>0.3364791295362202</v>
+        <v>0.2908482058044035</v>
       </c>
       <c r="F4">
-        <v>0.3664759849040334</v>
+        <v>0.291083902569898</v>
       </c>
       <c r="G4">
-        <v>0.3844909380643855</v>
+        <v>0.2817956815934272</v>
       </c>
       <c r="H4">
-        <v>0.4007495456328163</v>
+        <v>0.2741896858863768</v>
       </c>
       <c r="I4">
-        <v>0.1220798735907139</v>
+        <v>0.1207064278730413</v>
       </c>
       <c r="J4">
-        <v>0.2925501766171846</v>
+        <v>0.2925264582617183</v>
       </c>
       <c r="K4">
-        <v>0.3107797289959275</v>
+        <v>0.2940197524866611</v>
       </c>
       <c r="L4">
-        <v>0.3247725197570698</v>
+        <v>0.2907453838958002</v>
       </c>
       <c r="M4">
-        <v>0.3360022743220983</v>
+        <v>0.2905886680684426</v>
       </c>
       <c r="N4">
-        <v>0.3657931188781949</v>
+        <v>0.2907598646178718</v>
       </c>
       <c r="O4">
-        <v>0.383512175892508</v>
+        <v>0.2813059570419675</v>
       </c>
       <c r="P4">
-        <v>0.3998029577180084</v>
+        <v>0.2738454146381931</v>
       </c>
       <c r="Q4">
-        <v>0.1342973999907732</v>
+        <v>0.1329305079959536</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,52 +660,52 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>2.088723159798139E-06</v>
+        <v>2.088672263983068E-06</v>
       </c>
       <c r="C5">
-        <v>2.087138376761285E-06</v>
+        <v>2.058802566316726E-06</v>
       </c>
       <c r="D5">
-        <v>2.034633258389919E-06</v>
+        <v>1.977165132320707E-06</v>
       </c>
       <c r="E5">
-        <v>2.022780204329697E-06</v>
+        <v>1.946112291543711E-06</v>
       </c>
       <c r="F5">
-        <v>2.00030047177073E-06</v>
+        <v>1.873740648282477E-06</v>
       </c>
       <c r="G5">
-        <v>1.881497987062228E-06</v>
+        <v>1.709401982185488E-06</v>
       </c>
       <c r="H5">
-        <v>1.781129763473165E-06</v>
+        <v>1.569353873632173E-06</v>
       </c>
       <c r="I5">
-        <v>5.42607895597295E-07</v>
+        <v>5.40323028075377E-07</v>
       </c>
       <c r="J5">
-        <v>2.127516758121282E-06</v>
+        <v>2.127466360971887E-06</v>
       </c>
       <c r="K5">
-        <v>2.127103154329424E-06</v>
+        <v>2.09793639691815E-06</v>
       </c>
       <c r="L5">
-        <v>2.0735043982895E-06</v>
+        <v>2.014348726803028E-06</v>
       </c>
       <c r="M5">
-        <v>2.061744910050939E-06</v>
+        <v>1.982824590422625E-06</v>
       </c>
       <c r="N5">
-        <v>2.039521997115363E-06</v>
+        <v>1.909241419792166E-06</v>
       </c>
       <c r="O5">
-        <v>1.918319850088383E-06</v>
+        <v>1.741161603022989E-06</v>
       </c>
       <c r="P5">
-        <v>1.817715927286872E-06</v>
+        <v>1.599703624007989E-06</v>
       </c>
       <c r="Q5">
-        <v>6.396807612755406E-07</v>
+        <v>6.373273003999334E-07</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,52 +713,52 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1.928889547601438E-09</v>
+        <v>1.92887692868218E-09</v>
       </c>
       <c r="C6">
-        <v>1.912015675615939E-09</v>
+        <v>1.902173827477826E-09</v>
       </c>
       <c r="D6">
-        <v>1.724748492831387E-09</v>
+        <v>1.704894123747411E-09</v>
       </c>
       <c r="E6">
-        <v>1.696462843353463E-09</v>
+        <v>1.669994734349599E-09</v>
       </c>
       <c r="F6">
-        <v>1.658874203393131E-09</v>
+        <v>1.615221805044267E-09</v>
       </c>
       <c r="G6">
-        <v>1.54289839270948E-09</v>
+        <v>1.483686082021903E-09</v>
       </c>
       <c r="H6">
-        <v>1.442649939262349E-09</v>
+        <v>1.369943732991125E-09</v>
       </c>
       <c r="I6">
-        <v>8.055624955097598E-09</v>
+        <v>8.054657912807643E-09</v>
       </c>
       <c r="J6">
-        <v>1.934963408498973E-09</v>
+        <v>1.934948630972023E-09</v>
       </c>
       <c r="K6">
-        <v>1.917374459209935E-09</v>
+        <v>1.906566737957407E-09</v>
       </c>
       <c r="L6">
-        <v>1.73509449672882E-09</v>
+        <v>1.713277223027212E-09</v>
       </c>
       <c r="M6">
-        <v>1.707835743394102E-09</v>
+        <v>1.67874782720239E-09</v>
       </c>
       <c r="N6">
-        <v>1.672243033230872E-09</v>
+        <v>1.624262270230586E-09</v>
       </c>
       <c r="O6">
-        <v>1.565618430452355E-09</v>
+        <v>1.50049413772321E-09</v>
       </c>
       <c r="P6">
-        <v>1.468527974146395E-09</v>
+        <v>1.388530748212589E-09</v>
       </c>
       <c r="Q6">
-        <v>7.861649984727293E-09</v>
+        <v>7.860608633886897E-09</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,52 +766,52 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>4.910016753353323E-09</v>
+        <v>4.909944084921833E-09</v>
       </c>
       <c r="C7">
-        <v>4.941149770044755E-09</v>
+        <v>4.870920123497756E-09</v>
       </c>
       <c r="D7">
-        <v>4.965490952099209E-09</v>
+        <v>4.822901836574515E-09</v>
       </c>
       <c r="E7">
-        <v>4.979546945383577E-09</v>
+        <v>4.789263151666907E-09</v>
       </c>
       <c r="F7">
-        <v>4.985140526267088E-09</v>
+        <v>4.670905094004065E-09</v>
       </c>
       <c r="G7">
-        <v>5.016458622486629E-09</v>
+        <v>4.588499588866545E-09</v>
       </c>
       <c r="H7">
-        <v>5.050056041760288E-09</v>
+        <v>4.522723424549834E-09</v>
       </c>
       <c r="I7">
-        <v>1.497033573383538E-09</v>
+        <v>1.491394655764442E-09</v>
       </c>
       <c r="J7">
-        <v>4.86643901554417E-09</v>
+        <v>4.866378564545264E-09</v>
       </c>
       <c r="K7">
-        <v>4.899178100856683E-09</v>
+        <v>4.829861448295177E-09</v>
       </c>
       <c r="L7">
-        <v>4.925355141991642E-09</v>
+        <v>4.784606880522537E-09</v>
       </c>
       <c r="M7">
-        <v>4.939794990005279E-09</v>
+        <v>4.751963450461081E-09</v>
       </c>
       <c r="N7">
-        <v>4.945970859995942E-09</v>
+        <v>4.635776884649879E-09</v>
       </c>
       <c r="O7">
-        <v>4.98030939199681E-09</v>
+        <v>4.557843938550647E-09</v>
       </c>
       <c r="P7">
-        <v>5.017864302671597E-09</v>
+        <v>4.497287850889817E-09</v>
       </c>
       <c r="Q7">
-        <v>1.533711533424008E-09</v>
+        <v>1.528152526083083E-09</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,52 +819,52 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.0001764143754028523</v>
+        <v>0.0001764055415305801</v>
       </c>
       <c r="C8">
-        <v>0.0001770086906336257</v>
+        <v>0.000174522402359864</v>
       </c>
       <c r="D8">
-        <v>0.0001765579852740745</v>
+        <v>0.0001715172141932285</v>
       </c>
       <c r="E8">
-        <v>0.0001767998543551931</v>
+        <v>0.0001700753602146317</v>
       </c>
       <c r="F8">
-        <v>0.0001763772555838698</v>
+        <v>0.0001652773769712658</v>
       </c>
       <c r="G8">
-        <v>0.0001751245669230196</v>
+        <v>0.0001600143647683293</v>
       </c>
       <c r="H8">
-        <v>0.0001748510474172562</v>
+        <v>0.0001562371134738003</v>
       </c>
       <c r="I8">
-        <v>0.0002010794803918008</v>
+        <v>0.0002008719799642274</v>
       </c>
       <c r="J8">
-        <v>0.0001724138896070827</v>
+        <v>0.0001724055929190684</v>
       </c>
       <c r="K8">
-        <v>0.0001729542863670321</v>
+        <v>0.0001706730277333859</v>
       </c>
       <c r="L8">
-        <v>0.0001724027974297028</v>
+        <v>0.0001677779957067206</v>
       </c>
       <c r="M8">
-        <v>0.0001725678260962936</v>
+        <v>0.0001663983602561322</v>
       </c>
       <c r="N8">
-        <v>0.0001719359344807108</v>
+        <v>0.0001617527026173501</v>
       </c>
       <c r="O8">
-        <v>0.0001705462295587756</v>
+        <v>0.000156684397623244</v>
       </c>
       <c r="P8">
-        <v>0.0001702148862302431</v>
+        <v>0.0001531390310004925</v>
       </c>
       <c r="Q8">
-        <v>0.0002008050410369848</v>
+        <v>0.0002006143164172092</v>
       </c>
     </row>
   </sheetData>
